--- a/Viable Titre/output_13-11.xlsx
+++ b/Viable Titre/output_13-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,44 +1324,332 @@
           <t>LB</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>27</v>
+      </c>
+      <c r="I25" t="n">
+        <v>33</v>
+      </c>
+      <c r="J25" t="n">
+        <v>286363636.3636363</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DG023 #1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>245</v>
+      </c>
+      <c r="G26" t="n">
+        <v>245</v>
+      </c>
+      <c r="H26" t="n">
+        <v>33</v>
+      </c>
+      <c r="I26" t="n">
+        <v>33</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2527.272727272727</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DG024 #3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>103</v>
+      </c>
+      <c r="G27" t="n">
+        <v>103</v>
+      </c>
+      <c r="H27" t="n">
+        <v>16</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1081.818181818182</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DG025 #1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>300</v>
+      </c>
+      <c r="G28" t="n">
+        <v>300</v>
+      </c>
+      <c r="H28" t="n">
+        <v>35</v>
+      </c>
+      <c r="I28" t="n">
+        <v>35</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3045.454545454545</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DG026 #3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>518</v>
+      </c>
+      <c r="G29" t="n">
+        <v>518</v>
+      </c>
+      <c r="H29" t="n">
+        <v>55</v>
+      </c>
+      <c r="I29" t="n">
+        <v>55</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5209.090909090908</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DG023 #1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="F30" t="n">
+        <v>169</v>
+      </c>
+      <c r="G30" t="n">
+        <v>169</v>
+      </c>
+      <c r="H30" t="n">
+        <v>23</v>
+      </c>
+      <c r="I30" t="n">
+        <v>23</v>
+      </c>
+      <c r="J30" t="n">
+        <v>174545454.5454545</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DG024 #3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="F31" t="n">
+        <v>120</v>
+      </c>
+      <c r="G31" t="n">
+        <v>120</v>
+      </c>
+      <c r="H31" t="n">
+        <v>17</v>
+      </c>
+      <c r="I31" t="n">
+        <v>17</v>
+      </c>
+      <c r="J31" t="n">
+        <v>124545454.5454545</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DG025 #1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="F32" t="n">
+        <v>71</v>
+      </c>
+      <c r="G32" t="n">
+        <v>71</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>69090909.09090908</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DG026 #3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10e-6</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>10e-7</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>10e-6</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>286363636.3636363</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>103636363.63636361</t>
         </is>
       </c>
     </row>
